--- a/biology/Zoologie/Barylestis_blaisei/Barylestis_blaisei.xlsx
+++ b/biology/Zoologie/Barylestis_blaisei/Barylestis_blaisei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barylestis blaisei est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barylestis blaisei est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Gabon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Gabon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 20 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 20 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Lieutenant de vaisseau Louis Blaise[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Lieutenant de vaisseau Louis Blaise.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1903 : Études arachnologiques. 33e Mémoire. LII. Étude sur les arachnides recueillis par M. le Lieutenant de vaisseau Blaise dans l'estuaire du Gabon, pendant qu'il commandait la canonnière "la Cigogne" au Congo français (1894-1896). Annales de la Société Entomologique de France, vol. 71, p. 719-725 (texte intégral).</t>
         </is>
